--- a/biology/Botanique/Linaria_supina/Linaria_supina.xlsx
+++ b/biology/Botanique/Linaria_supina/Linaria_supina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linaire couchée
 Linaria supina, la Linaire couchée ou Linaire étalée, est une plante herbacée de la famille des Plantaginacées (autrefois des Scrofulariacées).
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque partout en France métropolitaine (absente de Corse).
 </t>
@@ -543,9 +557,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [2]. Toutefois localement l'espèce se raréfie : elle a disparu en Bretagne ; elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Champagne-Ardenne et Bourgogne ; elle est considérée vulnérable (VU) en Basse-Normandie, Lorraine et Limousin ; en danger (EN) en Aquitaine et en Auvergne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante . Toutefois localement l'espèce se raréfie : elle a disparu en Bretagne ; elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Champagne-Ardenne et Bourgogne ; elle est considérée vulnérable (VU) en Basse-Normandie, Lorraine et Limousin ; en danger (EN) en Aquitaine et en Auvergne.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 juillet 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 juillet 2013) :
 Linaria supina subsp. supina
 Linaria supina subsp. maritima (DC.) Lainz
 Linaria supina subsp. pyrenaica (DC.) Nyman 1881; synonyme: Linaria supina var. pyrenaica (De Candolle) Gautier
